--- a/biology/Botanique/Lonicera_biflora/Lonicera_biflora.xlsx
+++ b/biology/Botanique/Lonicera_biflora/Lonicera_biflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera biflora est une espèce de chèvrefeuille arbustes de la famille des caprifoliacées.
-Il est nommé Soltan er Rhabe en arabe, Anaref en berbère, et communément chèvrefeuille blanchâtre[2].
+Il est nommé Soltan er Rhabe en arabe, Anaref en berbère, et communément chèvrefeuille blanchâtre.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste à tiges volubiles et feuilles opposées.
-Les fleurs sont blanchâtres[3]
+Les fleurs sont blanchâtres
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lonicera biflora  est présent en Afrique du Nord, au Maroc et en Algérie[4].
-Il serait aussi présent en Espagne dans le delta de l'Ebre[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lonicera biflora  est présent en Afrique du Nord, au Maroc et en Algérie.
+Il serait aussi présent en Espagne dans le delta de l'Ebre.
 </t>
         </is>
       </c>
